--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2507989.179180279</v>
+        <v>2505654.067978299</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>145.5122698537056</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>286.9977044806038</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.5056468392528</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>345.7367844057999</v>
       </c>
       <c r="X5" t="n">
-        <v>196.6997841156786</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>176.410837212323</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.55276019063698</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>297.8304163214462</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>203.1977700471494</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176295</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.16269384155255</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1033.854129889791</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1033.854129889791</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>675.588431283041</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>675.588431283041</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>264.6025264934335</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.593301929725</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1420.453969953913</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>158.5894986512065</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>343.3111199322565</v>
+        <v>343.6260600182044</v>
       </c>
       <c r="L3" t="n">
-        <v>638.0146769637281</v>
+        <v>638.3296170496761</v>
       </c>
       <c r="M3" t="n">
-        <v>1001.276695922948</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.7929217761706</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>765.8567388482637</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>765.8567388482637</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>617.9436452658706</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>471.0536977679602</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>303.0672330762388</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.23396574994</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.23396574994</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.23396574994</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.44138660641</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>551.2876347907469</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>845.9911918222185</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9034178578795</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9672349299726</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8505955176369</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>222.9375019352437</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>76.04755443733339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.344461831649</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.5518826881192</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1891.353293732295</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.390776791883</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.125078185132</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>778.3368255868882</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>367.3509207972806</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796416</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796416</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>546.5917956728314</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5741,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>45.44676101130828</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.76488231024547</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664494</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>84.25835418137869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675663</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708108.4580630468</v>
+        <v>-708108.4580630471</v>
       </c>
       <c r="C6" t="n">
-        <v>406643.3255128728</v>
+        <v>406643.3255128731</v>
       </c>
       <c r="D6" t="n">
-        <v>247222.0555149803</v>
+        <v>247222.0555149804</v>
       </c>
       <c r="E6" t="n">
-        <v>189666.422771736</v>
+        <v>189631.6848463002</v>
       </c>
       <c r="F6" t="n">
-        <v>515078.8845790912</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="G6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="H6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="I6" t="n">
-        <v>515078.8845790912</v>
+        <v>515044.1466536557</v>
       </c>
       <c r="J6" t="n">
-        <v>347473.7067691085</v>
+        <v>347438.968843673</v>
       </c>
       <c r="K6" t="n">
-        <v>515078.8845790909</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="L6" t="n">
-        <v>466784.9145709004</v>
+        <v>466750.1766454648</v>
       </c>
       <c r="M6" t="n">
-        <v>430023.856643579</v>
+        <v>429989.1187181436</v>
       </c>
       <c r="N6" t="n">
-        <v>515078.8845790913</v>
+        <v>515044.1466536552</v>
       </c>
       <c r="O6" t="n">
-        <v>515078.884579091</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="P6" t="n">
-        <v>515078.8845790912</v>
+        <v>515044.1466536553</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>266.0354329192484</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>62.24326423680924</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74586231587611</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>3.504184311613074</v>
       </c>
       <c r="X5" t="n">
-        <v>173.0313165627905</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.421142969614266</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>141.7538398541672</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>113.0913093320073</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047134</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.35117922901983</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.353712668104585e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.05658153010742e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>108.4269819022257</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>232.3523785537303</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502332</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980277</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875412</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164546</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
